--- a/2024_2025/BoxScores/April.xlsx
+++ b/2024_2025/BoxScores/April.xlsx
@@ -1,23 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\BoxScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0290C9A5-684B-46AB-855A-EAE557883C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57042C4D-31E2-437C-9A17-E84DB66581DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Teams" sheetId="2" r:id="rId2"/>
-    <sheet name="Scores Template" sheetId="3" r:id="rId3"/>
-    <sheet name="Offense (4-1-25)" sheetId="5" r:id="rId4"/>
-    <sheet name="Goalies (4-1-25)" sheetId="4" r:id="rId5"/>
+    <sheet name="Scores (4-1-25)" sheetId="3" r:id="rId3"/>
+    <sheet name="Scores (4-2-25)" sheetId="6" r:id="rId4"/>
+    <sheet name="Scores (4-3-25)" sheetId="9" r:id="rId5"/>
+    <sheet name="Scores (4-4-25)" sheetId="10" r:id="rId6"/>
+    <sheet name="Scores (4-5-25)" sheetId="11" r:id="rId7"/>
+    <sheet name="Scores (4-6-25)" sheetId="12" r:id="rId8"/>
+    <sheet name="Scores (4-7-25)" sheetId="13" r:id="rId9"/>
+    <sheet name="Scores (4-8-25)" sheetId="14" r:id="rId10"/>
+    <sheet name="Scores (4-9-25)" sheetId="15" r:id="rId11"/>
+    <sheet name="Scores (4-10-25)" sheetId="16" r:id="rId12"/>
+    <sheet name="Scores (4-11-25)" sheetId="17" r:id="rId13"/>
+    <sheet name="Scores (4-12-25)" sheetId="18" r:id="rId14"/>
+    <sheet name="Scores (4-13-25)" sheetId="19" r:id="rId15"/>
+    <sheet name="Scores (4-14-25)" sheetId="20" r:id="rId16"/>
+    <sheet name="Scores (4-15-25)" sheetId="21" r:id="rId17"/>
+    <sheet name="Scores (4-16-25)" sheetId="22" r:id="rId18"/>
+    <sheet name="Scores (4-17-25)" sheetId="23" r:id="rId19"/>
+    <sheet name="Offense (4-1-25)" sheetId="5" r:id="rId20"/>
+    <sheet name="Goalies (4-1-25)" sheetId="4" r:id="rId21"/>
+    <sheet name="Offense (4-2-25)" sheetId="7" r:id="rId22"/>
+    <sheet name="Goalies (4-2-25)" sheetId="8" r:id="rId23"/>
+    <sheet name="Offense (4-3-25)" sheetId="24" r:id="rId24"/>
+    <sheet name="Goalies (4-3-25)" sheetId="25" r:id="rId25"/>
+    <sheet name="Offense (4-4-25)" sheetId="26" r:id="rId26"/>
+    <sheet name="Goalies (4-4-25)" sheetId="27" r:id="rId27"/>
+    <sheet name="Offense (4-5-25)" sheetId="28" r:id="rId28"/>
+    <sheet name="Goalies (4-5-25)" sheetId="29" r:id="rId29"/>
+    <sheet name="Offense (4-6-25)" sheetId="31" r:id="rId30"/>
+    <sheet name="Goalies (4-6-25)" sheetId="32" r:id="rId31"/>
+    <sheet name="Offense (4-7-25)" sheetId="33" r:id="rId32"/>
+    <sheet name="Goalies (4-7-25)" sheetId="34" r:id="rId33"/>
+    <sheet name="Offense (4-8-25)" sheetId="35" r:id="rId34"/>
+    <sheet name="Goalies (4-8-25)" sheetId="36" r:id="rId35"/>
+    <sheet name="Offense (4-9-25)" sheetId="37" r:id="rId36"/>
+    <sheet name="Goalies (4-9-25)" sheetId="38" r:id="rId37"/>
+    <sheet name="Offense (4-10-25)" sheetId="39" r:id="rId38"/>
+    <sheet name="Goalies (4-10-25)" sheetId="40" r:id="rId39"/>
+    <sheet name="Offense (4-11-25)" sheetId="41" r:id="rId40"/>
+    <sheet name="Goalies (4-11-25)" sheetId="42" r:id="rId41"/>
+    <sheet name="Offense (4-12-25)" sheetId="43" r:id="rId42"/>
+    <sheet name="Goalies (4-12-25)" sheetId="44" r:id="rId43"/>
+    <sheet name="Offense (4-13-25)" sheetId="45" r:id="rId44"/>
+    <sheet name="Goalies (4-13-25)" sheetId="46" r:id="rId45"/>
+    <sheet name="Offense (4-14-25)" sheetId="47" r:id="rId46"/>
+    <sheet name="Goalies (4-14-25)" sheetId="48" r:id="rId47"/>
+    <sheet name="Offense (4-15-25)" sheetId="49" r:id="rId48"/>
+    <sheet name="Goalies (4-15-25)" sheetId="50" r:id="rId49"/>
+    <sheet name="Offense (4-16-25)" sheetId="51" r:id="rId50"/>
+    <sheet name="Goalies (4-16-25)" sheetId="52" r:id="rId51"/>
+    <sheet name="Offense (4-17-25)" sheetId="53" r:id="rId52"/>
+    <sheet name="Goalies (4-17-25)" sheetId="54" r:id="rId53"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="94">
   <si>
     <t>Winnipeg Jets</t>
   </si>
@@ -271,6 +319,57 @@
   </si>
   <si>
     <t>April 1st 2025</t>
+  </si>
+  <si>
+    <t>April 2nd 2025</t>
+  </si>
+  <si>
+    <t>April 3rd 2025</t>
+  </si>
+  <si>
+    <t>April 4th 2025</t>
+  </si>
+  <si>
+    <t>April 5th 2025</t>
+  </si>
+  <si>
+    <t>April 6th 2025</t>
+  </si>
+  <si>
+    <t>April 7th 2025</t>
+  </si>
+  <si>
+    <t>April 8th 2025</t>
+  </si>
+  <si>
+    <t>April 9th 2025</t>
+  </si>
+  <si>
+    <t>April 10th 2025</t>
+  </si>
+  <si>
+    <t>April 11th 2025</t>
+  </si>
+  <si>
+    <t>April 12th 2025</t>
+  </si>
+  <si>
+    <t>April 13th 2025</t>
+  </si>
+  <si>
+    <t>April 14th 2025</t>
+  </si>
+  <si>
+    <t>April 15th 2025</t>
+  </si>
+  <si>
+    <t>April 16th 2025</t>
+  </si>
+  <si>
+    <t>April 17th 2025</t>
+  </si>
+  <si>
+    <t>Scores</t>
   </si>
 </sst>
 </file>
@@ -891,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D177AD-3B5D-4C42-BF73-A9BA1128D737}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -917,201 +1016,245 @@
       <c r="A2" s="18">
         <v>45748</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="AA2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="16">
+        <v>45749</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="16">
+        <v>45750</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="16">
+        <v>45751</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="16">
+        <v>45752</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="16">
+        <v>45753</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="16">
+        <v>45754</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="16">
+        <v>45755</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="16">
+        <v>45756</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="16">
+        <v>45757</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="16">
+        <v>45758</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="16">
+        <v>45759</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="16">
+        <v>45760</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="16">
+        <v>45761</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="16">
+        <v>45762</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="16">
+        <v>45763</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="AA17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="3"/>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>45764</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="AA18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="3"/>
+    <row r="19" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="AA19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="3"/>
       <c r="AA20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="3"/>
       <c r="AA21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="3"/>
       <c r="AA22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="3"/>
       <c r="AA23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="3"/>
       <c r="AA24" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="3"/>
       <c r="AA25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="3"/>
       <c r="AA26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="3"/>
       <c r="AA27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="3"/>
       <c r="AA28" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="2"/>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1133,8 +1276,1688 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Scores (4-1-25)'!A1" display="Scores" xr:uid="{0B04A5FA-82BA-4981-9A39-12BF42E77739}"/>
+    <hyperlink ref="B3" location="'Scores (4-2-25)'!A1" display="Scores" xr:uid="{34469EAD-4D1D-4990-9152-54168A71FCEE}"/>
+    <hyperlink ref="B4:B17" location="'Scores (4-2-25)'!A1" display="Scores" xr:uid="{CF1A3E8E-47B6-4149-B2DA-9DCFBA35A994}"/>
+    <hyperlink ref="B4" location="'Scores (4-3-25)'!A1" display="Scores" xr:uid="{BD864CAE-CA61-49E3-BC6C-DD8EE982C435}"/>
+    <hyperlink ref="B5" location="'Scores (4-4-25)'!A1" display="Scores" xr:uid="{6EBD0019-74FE-448F-A91E-F2BFBEE60D94}"/>
+    <hyperlink ref="B6" location="'Scores (4-5-25)'!A1" display="Scores" xr:uid="{1F20F32C-C663-480B-AAB9-77ACE4F6784B}"/>
+    <hyperlink ref="B7" location="'Scores (4-6-25)'!A1" display="Scores" xr:uid="{183325F3-F13C-4D1A-82B1-C6FADAC1C143}"/>
+    <hyperlink ref="B8" location="'Scores (4-7-25)'!A1" display="Scores" xr:uid="{EA8A4064-CE2A-4132-A4D7-7793BC350C75}"/>
+    <hyperlink ref="B9" location="'Scores (4-8-25)'!A1" display="Scores" xr:uid="{51A47A23-5ED6-492A-B198-9B9F6E738577}"/>
+    <hyperlink ref="B10" location="'Scores (4-9-25)'!A1" display="Scores" xr:uid="{1BFDB645-6FF5-471A-97FD-A5F7B969B0C2}"/>
+    <hyperlink ref="B11" location="'Scores (4-10-25)'!A1" display="Scores" xr:uid="{1F4553BE-C069-4098-9C2B-4D0C0B81856A}"/>
+    <hyperlink ref="B12" location="'Scores (4-11-25)'!A1" display="Scores" xr:uid="{D821717F-0220-4034-ABE0-6FC2276C7E33}"/>
+    <hyperlink ref="B13" location="'Scores (4-12-25)'!A1" display="Scores" xr:uid="{02FBBB3C-95BE-4976-B84D-DEF35333F727}"/>
+    <hyperlink ref="B14" location="'Scores (4-13-25)'!A1" display="Scores" xr:uid="{D1F010C0-DBFB-4F45-AC64-9A735DA438FF}"/>
+    <hyperlink ref="B15" location="'Scores (4-14-25)'!A1" display="Scores" xr:uid="{628BE9B3-868D-4EBA-8BC5-02A11AC7D11B}"/>
+    <hyperlink ref="B16" location="'Scores (4-15-25)'!A1" display="Scores" xr:uid="{B2BB6D11-0125-4999-9EB6-23B7903F47B2}"/>
+    <hyperlink ref="B17" location="'Scores (4-16-25)'!A1" display="Scores" xr:uid="{E010DA44-BD6A-4C37-AE4E-31D7CC8470BB}"/>
+    <hyperlink ref="B18" location="'Scores (4-17-25)'!A1" display="Scores" xr:uid="{40209EA1-2280-4AE6-ADC7-C42A24A23CF2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AAA090-A32E-4AB1-9918-55EB4304BBDD}">
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12" xr:uid="{B001DEDE-2B49-4046-8E90-4E4A4DDC7C0A}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{CF0A6382-8F22-4555-9443-39997689AA37}"/>
+    <hyperlink ref="A13" location="'Offense (4-8-25)'!A1" display="Offense" xr:uid="{E8E8BB5E-8B51-4AB2-B54E-DC8D798A145E}"/>
+    <hyperlink ref="A14" location="'Goalies (4-8-25)'!A1" display="Goalies" xr:uid="{FE8C3D4D-1DD3-4149-9AA7-B1D69E2AAE59}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FAAED5BC-0741-4AE0-A6EF-3C6053389B29}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C12 A3:A12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B7F539-A0E9-452D-B050-5F5356053FA2}">
+  <dimension ref="A1:AA9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7" xr:uid="{5C4F556A-98F8-4A10-9D85-0A41E4C6570F}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{4F8CB1F8-4221-4C7F-80B5-22B125F39887}"/>
+    <hyperlink ref="A8" location="'Offense (4-9-25)'!A1" display="Offense" xr:uid="{16E51900-2C95-47AE-B907-6BF48A85710D}"/>
+    <hyperlink ref="A9" location="'Goalies (4-9-25)'!A1" display="Goalies" xr:uid="{EF55C0A1-888D-42B5-AE7F-D000F3FAFDCF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{22D9FA74-17F9-4044-B6B0-C055FD84D11F}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A7 C3:C7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC150FD-4C32-4F39-995A-EA5211688EDA}">
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11" xr:uid="{2D8EF790-D8BE-4571-B215-13D9FC2E8273}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{1152EC63-1297-4B75-9C19-31F7F2B5BEBE}"/>
+    <hyperlink ref="A12" location="'Offense (4-10-25)'!A1" display="Offense" xr:uid="{8A23FC64-9450-4FE1-9B4D-3AD482AC9B88}"/>
+    <hyperlink ref="A13" location="'Goalies (4-10-25)'!A1" display="Goalies" xr:uid="{782FE970-E0C8-4337-B443-6A6F672B5F42}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{416303B6-F4BB-4446-B6D8-7341129D8D84}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C11 A3:A11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB5A0F0-237F-49FC-ADBD-DDA2BB5CF4F2}">
+  <dimension ref="A1:AA9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7" xr:uid="{BF84D2C4-1BD6-4E5A-B084-DCE32B720AB0}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{8A8E837C-1F83-481B-A3AA-C4A98B36B7E8}"/>
+    <hyperlink ref="A8" location="'Offense (4-11-25)'!A1" display="Offense" xr:uid="{F5FA1FF1-FBA8-48CC-8861-73D30ACA6E69}"/>
+    <hyperlink ref="A9" location="'Goalies (4-11-25)'!A1" display="Goalies" xr:uid="{D5BBD79B-C0AD-4471-8922-DEE57641D8BA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CEB73B59-8D39-4CB8-B4F6-573E26B3B315}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C7 A3:A7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4711C6-47CC-447B-B79D-9AC019844EBB}">
+  <dimension ref="A1:AA15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E13" xr:uid="{48D025E9-6D6F-4B85-B84F-B2FA85702AE7}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{B41B20DD-3447-49DE-8D10-22F60C2A9393}"/>
+    <hyperlink ref="A14" location="'Offense (4-12-25)'!A1" display="Offense" xr:uid="{DE3ACEFA-3DCA-4A35-8036-7B258EC81E62}"/>
+    <hyperlink ref="A15" location="'Goalies (4-12-25)'!A1" display="Goalies" xr:uid="{97512417-89A2-4D3D-9B2D-8E8D10F9D0D4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6032086C-D486-4A52-84E1-1675CE01D28C}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C13 A3:A13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3715FC-336C-4E1C-90D4-2FE2D43B7F94}">
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11" xr:uid="{341CF7BB-4B15-4574-88B5-3BCE5B9150CE}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{377D80CC-BE2A-4DF8-8A30-54C66F2AE1F3}"/>
+    <hyperlink ref="A12" location="'Offense (4-13-25)'!A1" display="Offense" xr:uid="{20DDBF9F-04C0-4106-AE38-914EEC4614EC}"/>
+    <hyperlink ref="A13" location="'Goalies (4-13-25)'!A1" display="Goalies" xr:uid="{BAC5CA0C-6376-4828-9881-B333AC80DA8A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98C06498-496A-445E-9DE9-35625059555B}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C11 A3:A11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9057B163-BAE9-47AE-AF15-19062AB038C6}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8" xr:uid="{63DF8C77-F91B-4B4C-A3DC-D94242D55D5C}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{223567AB-4599-481C-80AF-AF3EEDCC0001}"/>
+    <hyperlink ref="A9" location="'Offense (4-14-25)'!A1" display="Offense" xr:uid="{A5406E8E-92E9-4182-9D21-BDFD1F3D649E}"/>
+    <hyperlink ref="A10" location="'Goalies (4-14-25)'!A1" display="Goalies" xr:uid="{E366461A-2172-4AE6-8A68-C1C64A2D83E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{002698B0-289A-458D-940B-E3308AA16C0F}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C8 A3:A8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C98494F-B3A6-487A-8E85-E7E7B226838B}">
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12" xr:uid="{B228F0B6-5575-4FA3-852B-87CA43858F27}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{D96DA549-4473-41E5-8999-1B4FE9072F0D}"/>
+    <hyperlink ref="A13" location="'Offense (4-15-25)'!A1" display="Offense" xr:uid="{5B08C781-95DF-42D9-93A2-AC4A74E548BF}"/>
+    <hyperlink ref="A14" location="'Goalies (4-15-25)'!A1" display="Goalies" xr:uid="{D5079289-C6F1-4CD2-88FC-EF65154F8E09}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B71730E5-B262-4112-B17C-5FFB2F3974EB}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C12 A3:A12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CF3B56-D1DA-49C6-8420-C296313D39DE}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8" xr:uid="{10DE9ADD-FD5B-4D8F-B183-25C8C64BBDBB}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{2D455BE4-70C8-4506-B18D-39409F7634EE}"/>
+    <hyperlink ref="A9" location="'Offense (4-16-25)'!A1" display="Offense" xr:uid="{40402248-5A4D-4436-B971-46AF6BF07BC2}"/>
+    <hyperlink ref="A10" location="'Goalies (4-16-25)'!A1" display="Goalies" xr:uid="{A4473FA6-A158-4B48-9F07-5AB3B1C31F16}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E99DD5FA-FCC6-47AA-9F2A-11730EE918C3}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C8 A3:A8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E7F946-1920-4DB0-9EEA-89F8F7D96017}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9" xr:uid="{B0476CAA-180E-4D27-86AC-687B7693A141}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{EB0064F8-FA04-4ED2-9CB8-452B87E046B6}"/>
+    <hyperlink ref="A10" location="'Offense (4-17-25)'!A1" display="Offense" xr:uid="{0CA4C8F9-66AE-4D76-AF09-25417CDF0C9D}"/>
+    <hyperlink ref="A11" location="'Goalies (4-17-25)'!A1" display="Goalies" xr:uid="{AF6A229E-B741-4953-B491-2FD392E0B702}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45711AC0-07B6-453D-A151-4CAF81B30472}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C9 A3:A9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1360,190 +3183,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82695FB2-CA88-4767-9DA7-832F5FE9DAB0}">
-  <dimension ref="A1:AA19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>$AA$1:$AA$2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{BAA4E157-7AD9-4D58-9557-33B5B6680F3F}"/>
-    <hyperlink ref="A18" location="'Offense (10-10-23)'!A1" display="Offense" xr:uid="{92E877DE-4515-48D6-9B56-CC914E41359A}"/>
-    <hyperlink ref="A19" location="'Goalies (10-10-23)'!A1" display="Goalies" xr:uid="{3439A79D-EC1A-4C2D-9169-5FCDEF87C1B7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
-          <x14:formula1>
-            <xm:f>Index!$AA$1:$AA$32</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED9F52C-4A3A-44E0-BBDC-950685570BE6}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,14 +3273,14 @@
     <sortCondition ref="A20:A37"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (10-4-24)'!A1" display="HOME" xr:uid="{E6243207-8E81-4D22-A737-3DA59F72993E}"/>
+    <hyperlink ref="U1" location="'Scores (4-1-25)'!A1" display="HOME" xr:uid="{5FC3F699-1FE9-4A20-ABD9-D7224C72E42D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAF5206-6C7C-473B-8F0B-07B9A3759B8D}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -1712,9 +3357,3949 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (10-4-24)'!A1" display="HOME" xr:uid="{C1C3C6D7-8A72-40DC-82A3-120186E367AE}"/>
+    <hyperlink ref="M1" location="'Scores (4-1-25)'!A1" display="HOME" xr:uid="{C1C3C6D7-8A72-40DC-82A3-120186E367AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3813AC4-8F4D-40BA-B85B-771C1C38C8EA}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-2-25)'!A1" display="HOME" xr:uid="{B170D9E0-66E6-4F59-B4F0-ECF82425A5B4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D842B9-090F-4899-924C-87D764B905CC}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-2-25)'!A1" display="HOME" xr:uid="{63841FCB-AEFE-425D-ACD9-7D933B556D65}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A609CFC-28B4-4029-B438-8BB2E9B49CD8}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-3-25)'!A1" display="HOME" xr:uid="{6DCFF1DD-69C2-4593-BAD7-BF43EA109B5F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB8451A-5A9F-49EE-8CB5-6E3411B9A260}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-3-25)'!A1" display="HOME" xr:uid="{2AED04CA-30E3-4556-B66C-D5F9D65EC442}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B84509-31CE-4227-9DF5-21A78EC65C2F}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-4-25)'!A1" display="HOME" xr:uid="{A57DE9E8-A6FF-4568-BF06-6E890AB2438E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5CF338-593C-4A84-A1B8-AA3E27BCF6AC}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-4-25)'!A1" display="HOME" xr:uid="{AA520494-98E6-48B0-9C1D-171FBA07015B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89128E22-BA2C-48E9-AC1B-5FB30C68917E}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-5-25)'!A1" display="HOME" xr:uid="{A98D86F4-01EB-4581-ACC8-29ECC1C591D4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D018ED-AF45-4823-9E1B-F5FE7333289D}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-5-25)'!A1" display="HOME" xr:uid="{B2DB0B4A-A33D-4379-AD44-655E6B77E185}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82695FB2-CA88-4767-9DA7-832F5FE9DAB0}">
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{BAA4E157-7AD9-4D58-9557-33B5B6680F3F}"/>
+    <hyperlink ref="A13" location="'Offense (4-1-25)'!A1" display="Offense" xr:uid="{92E877DE-4515-48D6-9B56-CC914E41359A}"/>
+    <hyperlink ref="A14" location="'Goalies (4-1-25)'!A1" display="Goalies" xr:uid="{3439A79D-EC1A-4C2D-9169-5FCDEF87C1B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C12 A3:A12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B26E7C-2CBA-40B9-85B2-A087EB9104AF}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-6-25)'!A1" display="HOME" xr:uid="{A2AF5342-1CEE-4C7D-8D4F-8C85E29CB68C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50C2166-58AF-49EA-968B-3D7350CE3AE1}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-6-25)'!A1" display="HOME" xr:uid="{5C8A305C-43F8-41C8-91D6-55451E1F699E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31435B73-9595-42FC-A2F3-2551CCFD3523}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-7-25)'!A1" display="HOME" xr:uid="{B567AB34-E314-45D5-BDE1-D85C4F08C59D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BDFE2A-45E4-45E7-BA95-D440C7286A75}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-7-25)'!A1" display="HOME" xr:uid="{FF1722BE-D337-4D0A-B8CA-4C4FBB2879C1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE36D29-65A3-45B4-AFDB-4F85AD412294}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-8-25)'!A1" display="HOME" xr:uid="{DD23665F-1F5D-4B4D-AFD1-45DFB7561ACA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0DD02C-892B-4389-B051-87478EBDC97C}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-8-25)'!A1" display="HOME" xr:uid="{A0D038EA-D85F-4AA0-94F3-ABE63AFB7A0C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F0B15D-6FCA-44C9-AF39-9F3E998F1F08}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-9-25)'!A1" display="HOME" xr:uid="{573BE0B8-99D7-4CB3-9D93-41AEA60885A7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD62E430-27A3-41BE-A247-02F6D1DF91DD}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-9-25)'!A1" display="HOME" xr:uid="{6807C042-731B-4B0E-B981-A34D4A1D7F62}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD9296C-57AF-4233-93BC-EDE19AFAA6EF}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-10-25)'!A1" display="HOME" xr:uid="{F7FDE22A-8761-47CF-800A-769A36A30E2E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57DE892-1E6B-48E0-82CB-662E675A5FCE}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-10-25)'!A1" display="HOME" xr:uid="{E76A7369-DCAD-4791-B48D-FD966DCD5857}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24069D-5353-45A7-BAD3-270CD0AC00C3}">
+  <dimension ref="A1:AA9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7" xr:uid="{9E22C99E-5F00-4E03-9346-F295CACEBECF}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{F9B02B8F-8981-4418-A6B0-C7868929CBE2}"/>
+    <hyperlink ref="A8" location="'Offense (4-2-25)'!A1" display="Offense" xr:uid="{4B164BF5-FCBF-456B-97E9-FC9082424C9B}"/>
+    <hyperlink ref="A9" location="'Goalies (4-2-25)'!A1" display="Goalies" xr:uid="{852C9F19-FCD3-40ED-AE37-D45C8720A38A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6690072-E043-484A-BE65-3C1D22F15C7F}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C7 A3:A7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662DB33C-7908-4879-9C71-9BCF4EDF5EE0}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-11-25)'!A1" display="HOME" xr:uid="{5CA05851-6420-467C-982B-2F61550DBEEF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1722E62D-2FDE-4C51-93FD-12CE3C644AE3}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-11-25)'!A1" display="HOME" xr:uid="{4EDFA7AE-A1BB-4FF2-8C34-47401B1BA028}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A18049-A1EF-4776-9A00-9FBEB22D5A64}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-12-25)'!A1" display="HOME" xr:uid="{51A6157D-BCF2-45CB-AD13-A04A2D78494F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8E7687-41F0-4D8D-B741-F131FDFF6914}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-12-25)'!A1" display="HOME" xr:uid="{5D573B62-76BB-41C9-9EF6-B27D3BC70F98}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B95C6F-1113-4FEA-969C-3E0DF439B94F}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-13-25)'!A1" display="HOME" xr:uid="{7F77195B-18FF-45E5-A5C4-BAF09CD95718}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20AA5C1-AAE3-4A50-8CEB-BF69FCA22F29}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-13-25)'!A1" display="HOME" xr:uid="{AE727CA3-03F1-4A77-B3D2-4BDBD743145B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3047E077-1571-4818-9AF6-0964C6DF6DDA}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-14-25)'!A1" display="HOME" xr:uid="{F0602458-3313-4A5F-90FC-EC18B062AD5B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9AF3E3-A86A-4224-ABBD-49ADF2F3C727}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-14-25)'!A1" display="HOME" xr:uid="{A532110C-02B2-4926-A51B-A40C7DC694CF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377015EA-8F87-4B39-A2D6-C7BD6FC9996B}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-15-25)'!A1" display="HOME" xr:uid="{0E8FD3B1-9900-4E1E-913A-F58BFAB16EFC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB806FB5-F83D-4019-B69E-F39C6D3B0D15}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-15-25)'!A1" display="HOME" xr:uid="{E617A601-473F-4DFA-A9DD-5B6C8046086F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE27387-6FC2-46A5-A34C-B11B03C9E539}">
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11" xr:uid="{75E7BC51-83BB-4777-8427-00264A06D8F6}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{A3B88027-BF37-4816-A830-4549C46E12AD}"/>
+    <hyperlink ref="A12" location="'Offense (4-3-25)'!A1" display="Offense" xr:uid="{2388A388-32FF-40F5-A174-85AD086C8F3F}"/>
+    <hyperlink ref="A13" location="'Goalies (4-3-25)'!A1" display="Goalies" xr:uid="{F4A100F7-1FCE-49B7-AEC2-4412E58A12D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E72422E9-569C-49E7-8F3A-A81078417915}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C11 A3:A11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D683C0-3D92-4469-9CF3-9D2BAFB04EFA}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-16-25)'!A1" display="HOME" xr:uid="{0534C63C-D9C5-4DA7-8919-3386979E4AED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEAB899-3F4A-4D4C-9494-39CAA1577B77}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-16-25)'!A1" display="HOME" xr:uid="{7F7D965F-BB62-44F0-A22A-15A86176D023}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F31FBB-669D-40B7-9A4E-12FA0BC82D5C}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-17-25)'!A1" display="HOME" xr:uid="{8F4CB332-633A-40D4-8475-02072F4615D8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3173732-2CE6-4EA0-B413-17DFE093F851}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-17-25)'!A1" display="HOME" xr:uid="{666EDA82-000C-4DED-8A8F-8C60D0052BFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC61773-B65E-42E8-8F4E-349088824B64}">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{BD116BE4-CE3D-4806-B159-71E4E22D3B15}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{CEB773BF-1ED3-4224-90CA-98A8E2EDE3E8}"/>
+    <hyperlink ref="A6" location="'Offense (4-4-25)'!A1" display="Offense" xr:uid="{5BCE1F43-5A1F-4378-9530-52893CCE4B46}"/>
+    <hyperlink ref="A7" location="'Goalies (4-4-25)'!A1" display="Goalies" xr:uid="{0E711460-ACB9-47C3-874D-2D145747B9E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CCDC5AD-3332-40ED-B8C8-3368EC9E2552}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C5 A3:A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A784C241-EA38-4238-88FE-1A9102ED7677}">
+  <dimension ref="A1:AA17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E15" xr:uid="{65DB09DA-EBDE-4784-9E1D-0073DAC3EDBD}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{9273D4AC-689E-4FC0-BEDF-C1F4E4D03C69}"/>
+    <hyperlink ref="A16" location="'Offense (4-5-25)'!A1" display="Offense" xr:uid="{E55B98A5-9162-4587-88CD-6693C12AE866}"/>
+    <hyperlink ref="A17" location="'Goalies (4-5-25)'!A1" display="Goalies" xr:uid="{5CF5087A-64B5-4ECB-9CD9-22F598A060C5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B007D666-B583-4CE2-990F-5C214709B014}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C15 A3:A15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE7570E-5150-4B05-8FD5-4DC69FBE371E}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9" xr:uid="{33F1FF29-C426-4912-9576-DF37ED456CCB}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{610AB5E3-6BA8-4EF3-BE54-31CD3E19570E}"/>
+    <hyperlink ref="A10" location="'Offense (4-6-25)'!A1" display="Offense" xr:uid="{58402ACC-F5C7-4A98-B8F7-9B72F3F13538}"/>
+    <hyperlink ref="A11" location="'Goalies (4-6-25)'!A1" display="Goalies" xr:uid="{2F710857-3A64-4E4F-B8A9-A6E83967F37F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC62D33A-1BF5-48C9-B713-618535861E0D}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C9 A3:A9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A88F4A-69B9-4AD5-9952-9DC7BED07B7E}">
+  <dimension ref="A1:AA9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7" xr:uid="{3E096FC8-187C-4EEE-9E06-E21072E672F1}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{364EAC02-BB98-4128-A4C3-D7E116252E19}"/>
+    <hyperlink ref="A8" location="'Offense (4-7-25)'!A1" display="Offense" xr:uid="{CEB23B40-6CAC-45DD-BF59-31C9A89147BB}"/>
+    <hyperlink ref="A9" location="'Goalies (4-7-25)'!A1" display="Goalies" xr:uid="{0873F657-4862-4068-82D7-D267674BFBA2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70E423E5-3CD4-495F-984B-3F7CAC63C8BA}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C7 A3:A7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>